--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>Course</t>
   </si>
@@ -373,6 +373,15 @@
     <t>MU R</t>
   </si>
   <si>
+    <t>NATSIOS A</t>
+  </si>
+  <si>
+    <t>68.42%</t>
+  </si>
+  <si>
+    <t>31.58%</t>
+  </si>
+  <si>
     <t>68.18%</t>
   </si>
   <si>
@@ -385,6 +394,12 @@
     <t>83.33%</t>
   </si>
   <si>
+    <t>PSAA-603</t>
+  </si>
+  <si>
+    <t>ABOUASSI K</t>
+  </si>
+  <si>
     <t>PSAA-605</t>
   </si>
   <si>
@@ -496,9 +511,6 @@
     <t>86.67%</t>
   </si>
   <si>
-    <t>ABOUASSI K</t>
-  </si>
-  <si>
     <t>64.00%</t>
   </si>
   <si>
@@ -593,6 +605,12 @@
   </si>
   <si>
     <t>ROSSER A</t>
+  </si>
+  <si>
+    <t>PSAA-689</t>
+  </si>
+  <si>
+    <t>BOWMAN A</t>
   </si>
 </sst>
 </file>
@@ -929,7 +947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H168"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,19 +1977,19 @@
     </row>
     <row r="87" spans="1:8">
       <c r="B87" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C87" t="n">
-        <v>3.6075</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
         <v>13</v>
@@ -1982,19 +2000,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="B88" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3.6075</v>
       </c>
       <c r="D88" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E88" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="G88" t="s">
         <v>13</v>
@@ -2005,16 +2023,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="B89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C89" t="n">
-        <v>3.667</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F89" t="s">
         <v>13</v>
@@ -2028,16 +2046,16 @@
     </row>
     <row r="90" spans="1:8">
       <c r="B90" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C90" t="n">
-        <v>3.682</v>
+        <v>3.667</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="E90" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
         <v>13</v>
@@ -2051,16 +2069,16 @@
     </row>
     <row r="91" spans="1:8">
       <c r="B91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.684</v>
+      </c>
+      <c r="D91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" t="s">
         <v>121</v>
-      </c>
-      <c r="C91" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D91" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" t="s">
-        <v>18</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
@@ -2074,22 +2092,22 @@
     </row>
     <row r="92" spans="1:8">
       <c r="B92" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="C92" t="n">
-        <v>3.333</v>
+        <v>3.682</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -2097,797 +2115,797 @@
     </row>
     <row r="93" spans="1:8">
       <c r="B93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>25</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" t="s">
         <v>92</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C95" t="n">
         <v>4</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>90</v>
       </c>
-      <c r="E93" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" t="s">
-        <v>13</v>
-      </c>
-      <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" t="n">
-        <v>3.364</v>
-      </c>
-      <c r="D96" t="s">
-        <v>59</v>
-      </c>
-      <c r="E96" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" t="s">
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" t="s">
         <v>126</v>
       </c>
-      <c r="G96" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="B97" t="s">
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" t="s">
         <v>127</v>
       </c>
-      <c r="C97" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D97" t="s">
-        <v>29</v>
-      </c>
-      <c r="E97" t="s">
-        <v>30</v>
-      </c>
-      <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" t="s">
+      <c r="C98" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D98" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
+      </c>
+      <c r="F98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="B100" t="s">
-        <v>129</v>
-      </c>
-      <c r="C100" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="D100" t="s">
-        <v>130</v>
-      </c>
-      <c r="E100" t="s">
-        <v>131</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="B101" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="D101" t="s">
+        <v>59</v>
+      </c>
+      <c r="E101" t="s">
+        <v>130</v>
+      </c>
+      <c r="F101" t="s">
+        <v>131</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="B102" t="s">
         <v>132</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="B105" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="s">
+        <v>136</v>
+      </c>
+      <c r="F105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="B106" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" t="n">
         <v>3.306</v>
       </c>
-      <c r="D101" t="s">
-        <v>133</v>
-      </c>
-      <c r="E101" t="s">
-        <v>134</v>
-      </c>
-      <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="B104" t="s">
-        <v>136</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="D106" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" t="s">
+        <v>139</v>
+      </c>
+      <c r="F106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" t="s">
+        <v>141</v>
+      </c>
+      <c r="C109" t="n">
         <v>3.688</v>
       </c>
-      <c r="D104" t="s">
-        <v>137</v>
-      </c>
-      <c r="E104" t="s">
-        <v>138</v>
-      </c>
-      <c r="F104" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" t="s">
-        <v>13</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="B107" t="s">
-        <v>140</v>
-      </c>
-      <c r="C107" t="n">
+      <c r="D109" t="s">
+        <v>142</v>
+      </c>
+      <c r="E109" t="s">
+        <v>143</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="B112" t="s">
+        <v>145</v>
+      </c>
+      <c r="C112" t="n">
         <v>3.4395</v>
       </c>
-      <c r="D107" t="s">
-        <v>141</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" t="s">
         <v>16</v>
       </c>
-      <c r="F107" t="s">
-        <v>142</v>
-      </c>
-      <c r="G107" t="s">
-        <v>13</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="B110" t="s">
-        <v>144</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="F112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="B115" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" t="n">
         <v>3.826</v>
       </c>
-      <c r="D110" t="s">
-        <v>145</v>
-      </c>
-      <c r="E110" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" t="s">
-        <v>147</v>
-      </c>
-      <c r="G110" t="s">
-        <v>13</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="B111" t="s">
-        <v>148</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="D115" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" t="s">
+        <v>151</v>
+      </c>
+      <c r="F115" t="s">
+        <v>152</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="B116" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" t="n">
         <v>3.833</v>
       </c>
-      <c r="D111" t="s">
-        <v>122</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D116" t="s">
+        <v>125</v>
+      </c>
+      <c r="E116" t="s">
         <v>18</v>
       </c>
-      <c r="F111" t="s">
-        <v>13</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="B114" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114" t="n">
+      <c r="F116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="B119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" t="n">
         <v>3.6</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D119" t="s">
         <v>45</v>
       </c>
-      <c r="E114" t="s">
-        <v>151</v>
-      </c>
-      <c r="F114" t="s">
-        <v>152</v>
-      </c>
-      <c r="G114" t="s">
-        <v>13</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="B117" t="s">
-        <v>154</v>
-      </c>
-      <c r="C117" t="n">
-        <v>3.267</v>
-      </c>
-      <c r="D117" t="s">
-        <v>45</v>
-      </c>
-      <c r="E117" t="s">
-        <v>103</v>
-      </c>
-      <c r="F117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="B118" t="s">
+      <c r="E119" t="s">
         <v>156</v>
       </c>
-      <c r="C118" t="n">
-        <v>3.778</v>
-      </c>
-      <c r="D118" t="s">
-        <v>80</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="F119" t="s">
         <v>157</v>
       </c>
-      <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
-        <v>13</v>
-      </c>
-      <c r="H118" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="B121" t="s">
-        <v>156</v>
-      </c>
-      <c r="C121" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D121" t="s">
-        <v>159</v>
-      </c>
-      <c r="E121" t="s">
-        <v>155</v>
-      </c>
-      <c r="F121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
-        <v>13</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="B122" t="s">
+        <v>159</v>
+      </c>
+      <c r="C122" t="n">
+        <v>3.267</v>
+      </c>
+      <c r="D122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122" t="s">
+        <v>103</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
         <v>160</v>
       </c>
-      <c r="C122" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="D122" t="s">
+    </row>
+    <row r="123" spans="1:8">
+      <c r="B123" t="s">
         <v>161</v>
       </c>
-      <c r="E122" t="s">
+      <c r="C123" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D123" t="s">
+        <v>80</v>
+      </c>
+      <c r="E123" t="s">
         <v>162</v>
       </c>
-      <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
-        <v>13</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" t="s">
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" t="s">
         <v>163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="B125" t="s">
-        <v>164</v>
-      </c>
-      <c r="C125" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D125" t="s">
-        <v>29</v>
-      </c>
-      <c r="E125" t="s">
-        <v>30</v>
-      </c>
-      <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="B126" t="s">
+        <v>161</v>
+      </c>
+      <c r="C126" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D126" t="s">
+        <v>164</v>
+      </c>
+      <c r="E126" t="s">
+        <v>160</v>
+      </c>
+      <c r="F126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="D127" t="s">
+        <v>165</v>
+      </c>
+      <c r="E127" t="s">
+        <v>166</v>
+      </c>
+      <c r="F127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>13</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="B130" t="s">
+        <v>168</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" t="s">
+        <v>30</v>
+      </c>
+      <c r="F130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="B131" t="s">
         <v>15</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C131" t="n">
         <v>4</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D131" t="s">
         <v>90</v>
       </c>
-      <c r="E126" t="s">
-        <v>13</v>
-      </c>
-      <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="B129" t="s">
-        <v>166</v>
-      </c>
-      <c r="C129" t="n">
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="B134" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" t="n">
         <v>4</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D134" t="s">
         <v>90</v>
       </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" t="s">
-        <v>13</v>
-      </c>
-      <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="B132" t="s">
-        <v>168</v>
-      </c>
-      <c r="C132" t="n">
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="B137" t="s">
+        <v>172</v>
+      </c>
+      <c r="C137" t="n">
         <v>3.5</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D137" t="s">
         <v>16</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E137" t="s">
         <v>16</v>
       </c>
-      <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s">
-        <v>13</v>
-      </c>
-      <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="B135" t="s">
-        <v>170</v>
-      </c>
-      <c r="C135" t="n">
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="B140" t="s">
+        <v>174</v>
+      </c>
+      <c r="C140" t="n">
         <v>3.454</v>
       </c>
-      <c r="D135" t="s">
-        <v>171</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D140" t="s">
+        <v>175</v>
+      </c>
+      <c r="E140" t="s">
         <v>59</v>
       </c>
-      <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s">
-        <v>13</v>
-      </c>
-      <c r="H135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="B138" t="s">
-        <v>166</v>
-      </c>
-      <c r="C138" t="n">
-        <v>3.6565</v>
-      </c>
-      <c r="D138" t="s">
-        <v>37</v>
-      </c>
-      <c r="E138" t="s">
-        <v>173</v>
-      </c>
-      <c r="F138" t="s">
-        <v>13</v>
-      </c>
-      <c r="G138" t="s">
-        <v>13</v>
-      </c>
-      <c r="H138" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="B141" t="s">
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
         <v>176</v>
-      </c>
-      <c r="C141" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D141" t="s">
-        <v>33</v>
-      </c>
-      <c r="E141" t="s">
-        <v>95</v>
-      </c>
-      <c r="F141" t="s">
-        <v>13</v>
-      </c>
-      <c r="G141" t="s">
-        <v>13</v>
-      </c>
-      <c r="H141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="B142" t="s">
-        <v>177</v>
-      </c>
-      <c r="C142" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D142" t="s">
-        <v>45</v>
-      </c>
-      <c r="E142" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" t="s">
-        <v>13</v>
-      </c>
-      <c r="G142" t="s">
-        <v>13</v>
-      </c>
-      <c r="H142" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="B143" t="s">
+        <v>170</v>
+      </c>
+      <c r="C143" t="n">
+        <v>3.6565</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" t="s">
+        <v>177</v>
+      </c>
+      <c r="F143" t="s">
+        <v>13</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
+      <c r="H143" t="s">
         <v>178</v>
-      </c>
-      <c r="C143" t="n">
-        <v>3.857</v>
-      </c>
-      <c r="D143" t="s">
-        <v>179</v>
-      </c>
-      <c r="E143" t="s">
-        <v>21</v>
-      </c>
-      <c r="F143" t="s">
-        <v>13</v>
-      </c>
-      <c r="G143" t="s">
-        <v>13</v>
-      </c>
-      <c r="H143" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="B146" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C146" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D146" t="s">
+        <v>33</v>
+      </c>
+      <c r="E146" t="s">
+        <v>95</v>
+      </c>
+      <c r="F146" t="s">
+        <v>13</v>
+      </c>
+      <c r="G146" t="s">
+        <v>13</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="B147" t="s">
+        <v>181</v>
+      </c>
+      <c r="C147" t="n">
+        <v>3.667</v>
+      </c>
+      <c r="D147" t="s">
+        <v>45</v>
+      </c>
+      <c r="E147" t="s">
+        <v>17</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="B148" t="s">
+        <v>182</v>
+      </c>
+      <c r="C148" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="D148" t="s">
+        <v>183</v>
+      </c>
+      <c r="E148" t="s">
+        <v>21</v>
+      </c>
+      <c r="F148" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="B151" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" t="n">
         <v>3.556</v>
       </c>
-      <c r="D146" t="s">
-        <v>181</v>
-      </c>
-      <c r="E146" t="s">
-        <v>182</v>
-      </c>
-      <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
-      <c r="A148" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
-      <c r="B149" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" t="n">
+      <c r="D151" t="s">
+        <v>185</v>
+      </c>
+      <c r="E151" t="s">
+        <v>186</v>
+      </c>
+      <c r="F151" t="s">
+        <v>13</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="B154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" t="n">
         <v>3.889</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D154" t="s">
         <v>93</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E154" t="s">
         <v>25</v>
       </c>
-      <c r="F149" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" t="s">
-        <v>13</v>
-      </c>
-      <c r="H149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="A151" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
-      <c r="B152" t="s">
-        <v>185</v>
-      </c>
-      <c r="C152" t="n">
+      <c r="F154" t="s">
+        <v>13</v>
+      </c>
+      <c r="G154" t="s">
+        <v>13</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="B157" t="s">
+        <v>189</v>
+      </c>
+      <c r="C157" t="n">
         <v>4</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D157" t="s">
         <v>90</v>
       </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s">
-        <v>13</v>
-      </c>
-      <c r="H152" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
-      <c r="A154" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
-      <c r="B155" t="s">
-        <v>187</v>
-      </c>
-      <c r="C155" t="n">
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>13</v>
+      </c>
+      <c r="G157" t="s">
+        <v>13</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>191</v>
+      </c>
+      <c r="C160" t="n">
         <v>3.167</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D160" t="s">
         <v>18</v>
       </c>
-      <c r="E155" t="s">
-        <v>122</v>
-      </c>
-      <c r="F155" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
-      <c r="A157" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
-      <c r="B158" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" t="n">
-        <v>4</v>
-      </c>
-      <c r="D158" t="s">
-        <v>90</v>
-      </c>
-      <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="A160" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="B161" t="s">
-        <v>136</v>
-      </c>
-      <c r="C161" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D161" t="s">
-        <v>122</v>
-      </c>
-      <c r="E161" t="s">
-        <v>18</v>
-      </c>
-      <c r="F161" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" t="s">
+      <c r="E160" t="s">
+        <v>125</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>176</v>
-      </c>
-      <c r="C162" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D162" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" t="s">
-        <v>16</v>
-      </c>
-      <c r="F162" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" t="s">
-        <v>13</v>
+      <c r="A162" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="B163" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
@@ -2908,64 +2926,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
-      <c r="B164" t="s">
-        <v>132</v>
-      </c>
-      <c r="C164" t="n">
-        <v>4</v>
-      </c>
-      <c r="D164" t="s">
-        <v>90</v>
-      </c>
-      <c r="E164" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>13</v>
-      </c>
-      <c r="G164" t="s">
-        <v>13</v>
-      </c>
-      <c r="H164" t="s">
-        <v>13</v>
-      </c>
-    </row>
     <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>127</v>
-      </c>
-      <c r="C165" t="n">
-        <v>4</v>
-      </c>
-      <c r="D165" t="s">
-        <v>90</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" t="s">
-        <v>13</v>
+      <c r="A165" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="B166" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="C166" t="n">
-        <v>4</v>
+        <v>3.833</v>
       </c>
       <c r="D166" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="E166" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F166" t="s">
         <v>13</v>
@@ -2979,16 +2956,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="B167" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D167" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E167" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F167" t="s">
         <v>13</v>
@@ -3002,7 +2979,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="B168" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C168" t="n">
         <v>4</v>
@@ -3020,6 +2997,149 @@
         <v>13</v>
       </c>
       <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>137</v>
+      </c>
+      <c r="C169" t="n">
+        <v>4</v>
+      </c>
+      <c r="D169" t="s">
+        <v>90</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="B170" t="s">
+        <v>195</v>
+      </c>
+      <c r="C170" t="n">
+        <v>4</v>
+      </c>
+      <c r="D170" t="s">
+        <v>90</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="B171" t="s">
+        <v>132</v>
+      </c>
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="s">
+        <v>90</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>149</v>
+      </c>
+      <c r="C172" t="n">
+        <v>4</v>
+      </c>
+      <c r="D172" t="s">
+        <v>90</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="B173" t="s">
+        <v>196</v>
+      </c>
+      <c r="C173" t="n">
+        <v>4</v>
+      </c>
+      <c r="D173" t="s">
+        <v>90</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="B176" t="s">
+        <v>198</v>
+      </c>
+      <c r="C176" t="n">
+        <v>4</v>
+      </c>
+      <c r="D176" t="s">
+        <v>90</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="202">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>BUSH-631</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>10.53%</t>
+  </si>
+  <si>
     <t>BUSH-635</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>4.00%</t>
   </si>
   <si>
+    <t>3.85%</t>
+  </si>
+  <si>
     <t>INTA-623</t>
   </si>
   <si>
@@ -280,9 +289,6 @@
     <t>89.47%</t>
   </si>
   <si>
-    <t>10.53%</t>
-  </si>
-  <si>
     <t>INTA-670</t>
   </si>
   <si>
@@ -412,6 +418,9 @@
     <t>18.18%</t>
   </si>
   <si>
+    <t>8.33%</t>
+  </si>
+  <si>
     <t>MCINTYRE D</t>
   </si>
   <si>
@@ -457,9 +466,6 @@
     <t>46.15%</t>
   </si>
   <si>
-    <t>3.85%</t>
-  </si>
-  <si>
     <t>PSAA-630</t>
   </si>
   <si>
@@ -478,6 +484,9 @@
     <t>MARCHBANKS M</t>
   </si>
   <si>
+    <t>7.69%</t>
+  </si>
+  <si>
     <t>PSAA-632</t>
   </si>
   <si>
@@ -511,6 +520,9 @@
     <t>86.67%</t>
   </si>
   <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>64.00%</t>
   </si>
   <si>
@@ -545,9 +557,6 @@
   </si>
   <si>
     <t>PSAA-643</t>
-  </si>
-  <si>
-    <t>8.33%</t>
   </si>
   <si>
     <t>4.17%</t>
@@ -648,12 +657,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -947,15 +955,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -980,2167 +988,2422 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.519</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3.333</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>3.714</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
         <v>3.056</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>3.7635</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>3.2</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>3.875</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="n">
         <v>3.714</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C25" t="n">
         <v>3.667</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C28" t="n">
         <v>3.75</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" t="n">
         <v>3.619</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="B34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C34" t="n">
         <v>3.5</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="B37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C37" t="n">
         <v>3.714</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C40" t="n">
         <v>3.273</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C43" t="n">
         <v>3.9</v>
       </c>
       <c r="D43" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C44" t="n">
         <v>3.512</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>72</v>
+      </c>
+      <c r="I44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C47" t="n">
         <v>3.619</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C48" t="n">
         <v>3.0605</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C51" t="n">
         <v>3.385</v>
       </c>
       <c r="D51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C54" t="n">
         <v>2.75</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C57" t="n">
         <v>3.444</v>
       </c>
       <c r="D57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C60" t="n">
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C63" t="n">
         <v>3.75</v>
       </c>
       <c r="D63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C66" t="n">
         <v>3.895</v>
       </c>
       <c r="D66" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="B71" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C71" t="n">
         <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="B72" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C72" t="n">
         <v>3.889</v>
       </c>
       <c r="D72" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C73" t="n">
         <v>3.6</v>
       </c>
       <c r="D73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="B74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C74" t="n">
         <v>3.75</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="B75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C75" t="n">
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C76" t="n">
         <v>3.625</v>
       </c>
       <c r="D76" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C77" t="n">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="B80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C80" t="n">
         <v>3.8</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="B83" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C83" t="n">
         <v>3.5665</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C84" t="n">
         <v>3.588</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="B85" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C85" t="n">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="B86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C86" t="n">
         <v>3.737</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C87" t="n">
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="B88" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C88" t="n">
         <v>3.6075</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F88" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="B89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C89" t="n">
         <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" t="n">
         <v>3.667</v>
       </c>
       <c r="D90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="B91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C91" t="n">
         <v>3.684</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E91" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="B92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C92" t="n">
         <v>3.682</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C93" t="n">
         <v>3.833</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="B94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
         <v>3.333</v>
       </c>
       <c r="D94" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="B95" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C95" t="n">
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="B98" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C98" t="n">
         <v>3.625</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="B101" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C101" t="n">
         <v>3.364</v>
       </c>
       <c r="D101" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E101" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F101" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C102" t="n">
         <v>3.75</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C105" t="n">
         <v>3.37</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E105" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="B106" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C106" t="n">
         <v>3.306</v>
       </c>
       <c r="D106" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E106" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="B109" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C109" t="n">
         <v>3.688</v>
       </c>
       <c r="D109" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E109" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="B112" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C112" t="n">
         <v>3.4395</v>
       </c>
       <c r="D112" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="B115" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C115" t="n">
         <v>3.826</v>
       </c>
       <c r="D115" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E115" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="B116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C116" t="n">
         <v>3.833</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="B119" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C119" t="n">
         <v>3.6</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E119" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F119" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="B122" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C122" t="n">
         <v>3.267</v>
       </c>
       <c r="D122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C123" t="n">
         <v>3.778</v>
       </c>
       <c r="D123" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E123" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C126" t="n">
         <v>3.867</v>
       </c>
       <c r="D126" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E126" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="B127" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C127" t="n">
         <v>3.64</v>
       </c>
       <c r="D127" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E127" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="B130" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C130" t="n">
         <v>3.75</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="B131" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C131" t="n">
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="B134" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C134" t="n">
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="B137" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C137" t="n">
         <v>3.5</v>
       </c>
       <c r="D137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="B140" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C140" t="n">
         <v>3.454</v>
       </c>
       <c r="D140" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E140" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C143" t="n">
         <v>3.6565</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E143" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>181</v>
+      </c>
+      <c r="I143" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="B146" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C146" t="n">
         <v>3.4</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E146" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C147" t="n">
         <v>3.667</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E147" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="B148" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C148" t="n">
         <v>3.857</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E148" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="B151" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C151" t="n">
         <v>3.556</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E151" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="B154" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C154" t="n">
         <v>3.889</v>
       </c>
       <c r="D154" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G154" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H154" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="B157" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C157" t="n">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C160" t="n">
         <v>3.167</v>
       </c>
       <c r="D160" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E160" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C166" t="n">
         <v>3.833</v>
       </c>
       <c r="D166" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E166" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="B167" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C167" t="n">
         <v>3.5</v>
       </c>
       <c r="D167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E167" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G167" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="B168" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C168" t="n">
         <v>4</v>
       </c>
       <c r="D168" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C169" t="n">
         <v>4</v>
       </c>
       <c r="D169" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G169" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H169" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="B170" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C170" t="n">
         <v>4</v>
       </c>
       <c r="D170" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="B171" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C171" t="n">
         <v>4</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
       </c>
       <c r="D172" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H172" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="B173" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G173" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="B176" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C176" t="n">
         <v>4</v>
       </c>
       <c r="D176" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
+++ b/GradeDistributionsDB/Spring2014/Output/Spring2014 GB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="200">
   <si>
     <t>Course</t>
   </si>
@@ -602,6 +602,9 @@
   </si>
   <si>
     <t>MORRISON J</t>
+  </si>
+  <si>
+    <t>TACKETT-GIBSON M</t>
   </si>
   <si>
     <t>ROSSER A</t>
@@ -947,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3048,19 +3051,19 @@
     </row>
     <row r="171" spans="1:8">
       <c r="B171" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D171" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E171" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="F171" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="G171" t="s">
         <v>13</v>
@@ -3071,7 +3074,7 @@
     </row>
     <row r="172" spans="1:8">
       <c r="B172" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C172" t="n">
         <v>4</v>
@@ -3094,7 +3097,7 @@
     </row>
     <row r="173" spans="1:8">
       <c r="B173" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="C173" t="n">
         <v>4</v>
@@ -3115,31 +3118,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
-      <c r="A175" t="s">
+    <row r="174" spans="1:8">
+      <c r="B174" t="s">
         <v>197</v>
       </c>
+      <c r="C174" t="n">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>90</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
-      <c r="B176" t="s">
+      <c r="A176" t="s">
         <v>198</v>
       </c>
-      <c r="C176" t="n">
+    </row>
+    <row r="177" spans="1:8">
+      <c r="B177" t="s">
+        <v>199</v>
+      </c>
+      <c r="C177" t="n">
         <v>4</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>90</v>
       </c>
-      <c r="E176" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>13</v>
-      </c>
-      <c r="G176" t="s">
-        <v>13</v>
-      </c>
-      <c r="H176" t="s">
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
         <v>13</v>
       </c>
     </row>
